--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5121" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5112" uniqueCount="86">
   <si>
     <t>Product + Project Backlog</t>
   </si>
@@ -196,6 +196,12 @@
     <t>Backlog</t>
   </si>
   <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>Excited</t>
+  </si>
+  <si>
     <t>DONE</t>
   </si>
   <si>
@@ -233,6 +239,36 @@
   </si>
   <si>
     <t>Wiki</t>
+  </si>
+  <si>
+    <t>Sarvesh</t>
+  </si>
+  <si>
+    <t>check what are some of the use cases plausible for the initial idea</t>
+  </si>
+  <si>
+    <t>I can further have a better understanding of the project</t>
+  </si>
+  <si>
+    <t>Use Case Diagram, also done with Tabu</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>have a document to refer to for the project idea</t>
+  </si>
+  <si>
+    <t>I can have a clearer understanding of the requirements of the project</t>
+  </si>
+  <si>
+    <t>Project Proposal, done with Sheng Huai</t>
+  </si>
+  <si>
+    <t>Mulder</t>
+  </si>
+  <si>
+    <t>Depressed</t>
   </si>
 </sst>
 </file>
@@ -419,7 +455,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -464,16 +500,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF999999"/>
           <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
       <border/>
@@ -720,7 +746,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -1466,25 +1495,25 @@
         <v>60</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="H20" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="I20" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="J20" s="13">
+        <v>7.0</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -1495,34 +1524,34 @@
         <v>57</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>16</v>
+      <c r="H21" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="I21" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>7.0</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -1533,34 +1562,34 @@
         <v>57</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="H22" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="13">
+        <v>1.0</v>
       </c>
       <c r="K22" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -1571,34 +1600,34 @@
         <v>57</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="H23" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>1.0</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -1609,87 +1638,111 @@
         <v>57</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="H24" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="I24" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="J24" s="13">
+        <v>7.0</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9">
         <v>23.0</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="14"/>
+      <c r="B25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="F25" s="13" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+        <v>62</v>
+      </c>
+      <c r="H25" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="I25" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="9">
         <v>24.0</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="14"/>
+      <c r="B26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="F26" s="13" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+        <v>85</v>
+      </c>
+      <c r="H26" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="I26" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="J26" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="9">
@@ -25194,19 +25247,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H1000">
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
       <formula>0</formula>
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H1000">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="between">
       <formula>4</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H1000">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
@@ -25222,12 +25275,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G1000">
-    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="5" priority="16" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH(("Neutral"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G1000">
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="Sad">
+    <cfRule type="containsText" dxfId="6" priority="17" operator="containsText" text="Sad">
       <formula>NOT(ISERROR(SEARCH(("Sad"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
